--- a/Jogos_do_Dia_FlashScore/2024-01-02_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2024-01-02_Jogos_do_Dia_FlashScore.xlsx
@@ -697,25 +697,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>1.55</v>
       </c>
       <c r="L2" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>6.35</v>
+        <v>6.45</v>
       </c>
       <c r="O2" t="n">
         <v>1.47</v>
@@ -724,62 +724,66 @@
         <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="X2" t="n">
         <v>1.69</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.7</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AM2" t="n">
         <v>13.5</v>
@@ -788,16 +792,16 @@
         <v>45</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -855,10 +859,10 @@
         <v>2.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>6.86</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
@@ -879,10 +883,10 @@
         <v>1.21</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
         <v>1.9</v>
@@ -1002,10 +1006,10 @@
         <v>2.15</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>5.89</v>
       </c>
       <c r="O4" t="n">
         <v>1.47</v>
@@ -1026,10 +1030,10 @@
         <v>1.16</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
         <v>2.03</v>
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="K5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L5" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>6.43</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="Q5" t="n">
         <v>2.25</v>
@@ -1167,74 +1171,74 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.16</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.23</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>90</v>
       </c>
-      <c r="AG5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
       <c r="AK5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AL5" t="n">
         <v>7.2</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS5" t="n">
         <v>101</v>
@@ -1454,16 +1458,16 @@
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
         <v>4.5</v>
@@ -1601,16 +1605,16 @@
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U9" t="n">
         <v>8</v>
@@ -1625,10 +1629,10 @@
         <v>1.91</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA9" t="n">
         <v>1.58</v>
@@ -1740,22 +1744,22 @@
         <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>3.75</v>
@@ -1776,16 +1780,16 @@
         <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.75</v>
+        <v>2.68</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1824,7 +1828,7 @@
         <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -1876,55 +1880,55 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="K11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.2</v>
       </c>
-      <c r="S11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y11" t="n">
         <v>6.8</v>
@@ -1933,58 +1937,58 @@
         <v>1.11</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
         <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
       </c>
       <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
         <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP11" t="n">
         <v>67</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>1250</v>
@@ -2042,10 +2046,10 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2084,10 +2088,10 @@
         <v>1.26</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2178,13 +2182,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>1.44</v>
@@ -2229,16 +2233,16 @@
         <v>1.91</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2332,52 +2336,52 @@
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.4</v>
       </c>
-      <c r="L14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y14" t="n">
         <v>2.03</v>
@@ -2392,10 +2396,10 @@
         <v>3.3</v>
       </c>
       <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
         <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>17</v>
@@ -2404,7 +2408,7 @@
         <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
@@ -2416,31 +2420,31 @@
         <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM14" t="n">
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2480,49 +2484,49 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>1.57</v>
@@ -2531,40 +2535,40 @@
         <v>2.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AC15" t="n">
         <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -2579,13 +2583,13 @@
         <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -2631,7 +2635,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
         <v>3.55</v>
@@ -2640,7 +2644,7 @@
         <v>2.42</v>
       </c>
       <c r="K16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="L16" t="n">
         <v>3.05</v>
@@ -2649,22 +2653,22 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S16" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="T16" t="n">
         <v>1.45</v>
@@ -2673,16 +2677,16 @@
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
         <v>1.6</v>
       </c>
       <c r="X16" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Z16" t="n">
         <v>1.47</v>
@@ -2694,19 +2698,19 @@
         <v>2.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH16" t="n">
         <v>7.1</v>
@@ -2715,13 +2719,13 @@
         <v>9.75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM16" t="n">
         <v>13</v>
@@ -2733,10 +2737,10 @@
         <v>35</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>50</v>
@@ -2782,13 +2786,13 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>1.4</v>
@@ -2797,10 +2801,10 @@
         <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -2809,16 +2813,16 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
         <v>6</v>
@@ -2833,16 +2837,16 @@
         <v>1.91</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
@@ -2851,40 +2855,40 @@
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
@@ -2893,7 +2897,7 @@
         <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2948,22 +2952,22 @@
         <v>2.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
         <v>3.4</v>
@@ -2972,10 +2976,10 @@
         <v>1.33</v>
       </c>
       <c r="U18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
         <v>1.8</v>
@@ -3084,13 +3088,13 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="n">
         <v>1.45</v>
@@ -3099,16 +3103,16 @@
         <v>2.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>6.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q19" t="n">
         <v>2.05</v>
@@ -3117,22 +3121,22 @@
         <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>3.65</v>
+        <v>3.74</v>
       </c>
       <c r="T19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="U19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V19" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="X19" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Y19" t="n">
         <v>1.75</v>
@@ -3146,49 +3150,49 @@
         <v>7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
         <v>45</v>
       </c>
       <c r="AK19" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AL19" t="n">
         <v>6.9</v>
       </c>
       <c r="AM19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS19" t="n">
         <v>500</v>
@@ -3231,13 +3235,13 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>1.57</v>
@@ -3385,16 +3389,16 @@
         <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.29</v>
       </c>
       <c r="K21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3409,16 +3413,16 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
         <v>4.5</v>
@@ -3444,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
@@ -3453,7 +3457,7 @@
         <v>7.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -3550,10 +3554,10 @@
         <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>2.1</v>
@@ -3833,34 +3837,34 @@
         <v>1.47</v>
       </c>
       <c r="I25" t="n">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="K25" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="L25" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S25" t="n">
         <v>3.05</v>
@@ -3869,75 +3873,75 @@
         <v>1.4</v>
       </c>
       <c r="U25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Y25" t="n">
         <v>1.47</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AD25" t="n">
         <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF25" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AG25" t="n">
         <v>6.3</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AI25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR25" t="n">
         <v>110</v>
       </c>
-      <c r="AK25" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>100</v>
-      </c>
       <c r="AS25" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3977,13 +3981,13 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="I26" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="J26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
         <v>1.34</v>
@@ -4016,16 +4020,16 @@
         <v>1.47</v>
       </c>
       <c r="U26" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="V26" t="n">
         <v>1.19</v>
       </c>
       <c r="W26" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -4035,52 +4039,52 @@
         <v>9.25</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF26" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN26" t="n">
         <v>90</v>
       </c>
-      <c r="AK26" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>80</v>
-      </c>
       <c r="AO26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS26" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4135,10 +4139,10 @@
         <v>2.25</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.5</v>
@@ -4147,22 +4151,22 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W27" t="n">
         <v>2.2</v>
@@ -4271,7 +4275,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I28" t="n">
         <v>4.33</v>
@@ -4280,10 +4284,10 @@
         <v>1.55</v>
       </c>
       <c r="K28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M28" t="n">
         <v>1.04</v>
@@ -4298,22 +4302,22 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
         <v>1.83</v>
@@ -4322,10 +4326,10 @@
         <v>1.83</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AA28" t="n">
         <v>2.38</v>
@@ -4364,7 +4368,7 @@
         <v>17</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN28" t="n">
         <v>26</v>
@@ -4425,16 +4429,16 @@
         <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="L29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
@@ -4479,10 +4483,10 @@
         <v>1.65</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AC29" t="n">
         <v>6</v>
@@ -4497,13 +4501,13 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>34</v>
@@ -4512,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -4591,7 +4595,7 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
         <v>1.4</v>
@@ -4648,7 +4652,7 @@
         <v>81</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH30" t="n">
         <v>7.5</v>
@@ -4678,7 +4682,7 @@
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR30" t="n">
         <v>81</v>
@@ -4724,7 +4728,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
         <v>3.6</v>
@@ -4775,16 +4779,16 @@
         <v>2.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AB31" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
@@ -4793,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -4805,7 +4809,7 @@
         <v>7.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
         <v>21</v>
@@ -4817,13 +4821,13 @@
         <v>11</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
         <v>26</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -4875,37 +4879,37 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="K32" t="n">
         <v>1.4</v>
       </c>
       <c r="L32" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
         <v>3.1</v>
@@ -4920,69 +4924,69 @@
         <v>1.12</v>
       </c>
       <c r="W32" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="AC32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD32" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD32" t="n">
-        <v>7</v>
-      </c>
       <c r="AE32" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AG32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL32" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AM32" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AN32" t="n">
         <v>27</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AP32" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AQ32" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AR32" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS32" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -5324,19 +5328,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="K35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="L35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5345,22 +5349,22 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U35" t="n">
         <v>5</v>
@@ -5369,73 +5373,73 @@
         <v>1.17</v>
       </c>
       <c r="W35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X35" t="n">
         <v>1.95</v>
       </c>
-      <c r="X35" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y35" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="AC35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD35" t="n">
         <v>15</v>
       </c>
-      <c r="AD35" t="n">
-        <v>17</v>
-      </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF35" t="n">
         <v>67</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
       </c>
       <c r="AK35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AL35" t="n">
         <v>8.5</v>
       </c>
       <c r="AM35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN35" t="n">
         <v>41</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP35" t="n">
         <v>12</v>
       </c>
       <c r="AQ35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -5502,10 +5506,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R36" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S36" t="n">
         <v>3.5</v>
@@ -5568,7 +5572,7 @@
         <v>9</v>
       </c>
       <c r="AM36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN36" t="n">
         <v>34</v>
@@ -5577,7 +5581,7 @@
         <v>21</v>
       </c>
       <c r="AP36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
         <v>29</v>
@@ -5586,7 +5590,7 @@
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
